--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-13.20135372989129</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.75482208186011</v>
+        <v>-11.88193525015043</v>
       </c>
       <c r="F2" t="n">
-        <v>2.461193112771308</v>
+        <v>0.6329970362555216</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.05061329660935</v>
+        <v>-11.0794032705583</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.44949313334598</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.38055560387756</v>
+        <v>-12.45071725480637</v>
       </c>
       <c r="F3" t="n">
-        <v>2.565224551151664</v>
+        <v>0.7365440594307331</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.76754461686839</v>
+        <v>-10.89172510932216</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.79081533830526</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.94063122714376</v>
+        <v>-12.96927718576146</v>
       </c>
       <c r="F4" t="n">
-        <v>2.432390046519511</v>
+        <v>0.6011565557444438</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.49183381132448</v>
+        <v>-10.74613870172217</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.33666525658601</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.52128795047716</v>
+        <v>-13.50655910978021</v>
       </c>
       <c r="F5" t="n">
-        <v>2.627491543466912</v>
+        <v>0.8530917393277785</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.2501760854719</v>
+        <v>-10.55768809461836</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.04833575393863</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.30106550773036</v>
+        <v>-14.23112642594986</v>
       </c>
       <c r="F6" t="n">
-        <v>2.610550103589719</v>
+        <v>0.8384021755393619</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.734221522782317</v>
+        <v>-10.23247529202989</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.92859896166027</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.86590672923095</v>
+        <v>-14.77685288530153</v>
       </c>
       <c r="F7" t="n">
-        <v>2.678315863098493</v>
+        <v>0.938571384581408</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.545954207918294</v>
+        <v>-10.19864478148686</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.95312367134577</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.69132405419041</v>
+        <v>-15.49940398683355</v>
       </c>
       <c r="F8" t="n">
-        <v>2.986482487387041</v>
+        <v>1.234745459466935</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.922184531327098</v>
+        <v>-9.579784718461315</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.08842233038374</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.52844589789037</v>
+        <v>-16.34915990277578</v>
       </c>
       <c r="F9" t="n">
-        <v>3.025707026700853</v>
+        <v>1.331248823713298</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.27655070899022</v>
+        <v>-9.00107874825134</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.30508401042646</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.17163145959585</v>
+        <v>-17.03721278631985</v>
       </c>
       <c r="F10" t="n">
-        <v>3.308893537167387</v>
+        <v>1.557824216692209</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.641940605646073</v>
+        <v>-8.430110329020824</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.55219284839914</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.13933593183919</v>
+        <v>-18.01594097755592</v>
       </c>
       <c r="F11" t="n">
-        <v>3.455474959783353</v>
+        <v>1.724986739375368</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.322566970125007</v>
+        <v>-8.155198153950259</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.80061713039283</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.07424418546401</v>
+        <v>-18.91649502852405</v>
       </c>
       <c r="F12" t="n">
-        <v>3.756702663565786</v>
+        <v>1.952085824467948</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.730965081615931</v>
+        <v>-7.649102095300497</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.00463593790057</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.69747707763869</v>
+        <v>-19.46461737929576</v>
       </c>
       <c r="F13" t="n">
-        <v>3.756964509622621</v>
+        <v>1.897962244520253</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.005402750430314</v>
+        <v>-6.995809275801208</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.14401714432539</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.63883983656448</v>
+        <v>-20.42862982213773</v>
       </c>
       <c r="F14" t="n">
-        <v>4.16518251222764</v>
+        <v>2.3676878858757</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.207544722952686</v>
+        <v>-6.192347742707321</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.19938132505297</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.53299175144301</v>
+        <v>-21.31366949423841</v>
       </c>
       <c r="F15" t="n">
-        <v>4.230984426310155</v>
+        <v>2.434825214848072</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.852154162314032</v>
+        <v>-5.861099388508809</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.16008231415363</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.33166150169682</v>
+        <v>-22.02942569059558</v>
       </c>
       <c r="F16" t="n">
-        <v>4.408332760604176</v>
+        <v>2.612749610467129</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.433174286773115</v>
+        <v>-5.41039686318239</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.04115007039814</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.25218131449858</v>
+        <v>-22.90511745846727</v>
       </c>
       <c r="F17" t="n">
-        <v>4.760856106920492</v>
+        <v>2.909997254185678</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.368301926192362</v>
+        <v>-5.411771554980771</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.85044490525218</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.17725724868926</v>
+        <v>-23.91601343778546</v>
       </c>
       <c r="F18" t="n">
-        <v>4.598459182471721</v>
+        <v>2.822174086723379</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.079551187018093</v>
+        <v>-5.179841410139594</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.62575261971999</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.89182204548783</v>
+        <v>-24.54223137500806</v>
       </c>
       <c r="F19" t="n">
-        <v>4.836451063528618</v>
+        <v>3.092268294348188</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.054963842281332</v>
+        <v>-5.155332619219883</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.3874553082177</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.3047009079045</v>
+        <v>-25.00628804923304</v>
       </c>
       <c r="F20" t="n">
-        <v>5.052762091079616</v>
+        <v>3.365766500711846</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.737043452375698</v>
+        <v>-4.875537015189355</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.17453130854667</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.95825557346063</v>
+        <v>-25.7077343585842</v>
       </c>
       <c r="F21" t="n">
-        <v>4.973396551253073</v>
+        <v>3.301745139815805</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.777014252951487</v>
+        <v>-4.795543044826409</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.00757615953797</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.45448003576773</v>
+        <v>-26.22543019755173</v>
       </c>
       <c r="F22" t="n">
-        <v>5.125869510147814</v>
+        <v>3.518239459606587</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.755425045565481</v>
+        <v>-4.90310940497403</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.90293718456485</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.87521427988944</v>
+        <v>-26.68053173663297</v>
       </c>
       <c r="F23" t="n">
-        <v>5.104424318093067</v>
+        <v>3.500381558530473</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.857073684828642</v>
+        <v>-4.9074298649118</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.87122315833439</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.30473345921794</v>
+        <v>-27.05380638295342</v>
       </c>
       <c r="F24" t="n">
-        <v>5.320499684192915</v>
+        <v>3.713000556680104</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.127455923115969</v>
+        <v>-5.139242179027401</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.89751366598599</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.38036769273459</v>
+        <v>-27.18442828840532</v>
       </c>
       <c r="F25" t="n">
-        <v>5.122308403774865</v>
+        <v>3.533897853805292</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.83012972558037</v>
+        <v>-4.817040606092522</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.97565334226388</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.72316345803951</v>
+        <v>-27.59646924344013</v>
       </c>
       <c r="F26" t="n">
-        <v>5.230424640641839</v>
+        <v>3.757226355679455</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.861354867857886</v>
+        <v>-4.877369937587196</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.06977450337825</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.64568320982217</v>
+        <v>-27.44111597792021</v>
       </c>
       <c r="F27" t="n">
-        <v>5.260039429669823</v>
+        <v>3.706794805133126</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.77756412967084</v>
+        <v>-4.828077417388098</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.16273113915559</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.93768084010119</v>
+        <v>-27.69462223784454</v>
       </c>
       <c r="F28" t="n">
-        <v>5.020319364637819</v>
+        <v>3.460450034863209</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.913606248499215</v>
+        <v>-4.889126825539067</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.22014091978745</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.99139855866079</v>
+        <v>-27.66689274042577</v>
       </c>
       <c r="F29" t="n">
-        <v>5.127100186614937</v>
+        <v>3.604831950601763</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.981254177282414</v>
+        <v>-4.92548415053054</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.2266381970563</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.65033097733099</v>
+        <v>-27.34573855171823</v>
       </c>
       <c r="F30" t="n">
-        <v>4.974522489297462</v>
+        <v>3.458224343380115</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.137877396177982</v>
+        <v>-5.017745608656183</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.16958778449267</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.45261101981524</v>
+        <v>-27.09682769009133</v>
       </c>
       <c r="F31" t="n">
-        <v>4.968185814722066</v>
+        <v>3.424001063751843</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.038703202151908</v>
+        <v>-4.900765882765361</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.0376299341578</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.15622746808425</v>
+        <v>-26.82555517521077</v>
       </c>
       <c r="F32" t="n">
-        <v>4.953129666454081</v>
+        <v>3.382681755983356</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.296503737408336</v>
+        <v>-5.106380498894668</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.84151554672118</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.95768269548947</v>
+        <v>-26.61623543737725</v>
       </c>
       <c r="F33" t="n">
-        <v>5.007646015487028</v>
+        <v>3.452908868426374</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.645204131294868</v>
+        <v>-5.438322745143791</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.58194551477521</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.46754615400377</v>
+        <v>-26.1317285861135</v>
       </c>
       <c r="F34" t="n">
-        <v>4.974522489297462</v>
+        <v>3.363933578314004</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.860520143829895</v>
+        <v>-5.593898579812023</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.28510411341259</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.1481070569685</v>
+        <v>-25.77518590282477</v>
       </c>
       <c r="F35" t="n">
-        <v>4.936502441845088</v>
+        <v>3.354664227902062</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.02977743496773</v>
+        <v>-5.701268555417018</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.961968488980641</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.87906023357102</v>
+        <v>-25.49109602346216</v>
       </c>
       <c r="F36" t="n">
-        <v>4.974941442988396</v>
+        <v>3.354742781719112</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.085969598764418</v>
+        <v>-5.633974118810546</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.642330443852554</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.41394308281587</v>
+        <v>-25.03692403788268</v>
       </c>
       <c r="F37" t="n">
-        <v>4.792487110586102</v>
+        <v>3.117038931324734</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.439631975427965</v>
+        <v>-5.919425597668699</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.344365204171785</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.89705896662452</v>
+        <v>-24.45443439215144</v>
       </c>
       <c r="F38" t="n">
-        <v>5.169807278484647</v>
+        <v>3.551310616584787</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.408328279333397</v>
+        <v>-5.879559535515644</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.082959602184484</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.51790587632813</v>
+        <v>-24.0880332048229</v>
       </c>
       <c r="F39" t="n">
-        <v>5.131027877467455</v>
+        <v>3.483021164962344</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.667385675662631</v>
+        <v>-6.149679927746136</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.876427872776231</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.95767314542783</v>
+        <v>-23.5309688112103</v>
       </c>
       <c r="F40" t="n">
-        <v>5.200862220825222</v>
+        <v>3.487682024773999</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.609949743095979</v>
+        <v>-6.015863500400854</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.723194064315827</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.48985898028728</v>
+        <v>-23.06126935446053</v>
       </c>
       <c r="F41" t="n">
-        <v>5.383002337959315</v>
+        <v>3.627795849786151</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.886393717599025</v>
+        <v>-6.272943959000987</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.634142388882983</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.95094051841331</v>
+        <v>-22.53701427176929</v>
       </c>
       <c r="F42" t="n">
-        <v>5.364516006346798</v>
+        <v>3.67094807995248</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.97616763818474</v>
+        <v>-6.392856360728356</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.595110898761366</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.32506298106459</v>
+        <v>-21.89541287870767</v>
       </c>
       <c r="F43" t="n">
-        <v>5.294419816932196</v>
+        <v>3.610095056344138</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.907707986625354</v>
+        <v>-6.20394752302509</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.606453563199683</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.04897249873827</v>
+        <v>-21.66856254736908</v>
       </c>
       <c r="F44" t="n">
-        <v>5.414423864779457</v>
+        <v>3.634760954897949</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.866323217342658</v>
+        <v>-6.068416004007542</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.651133491826602</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.3452612209955</v>
+        <v>-20.89492528014864</v>
       </c>
       <c r="F45" t="n">
-        <v>5.295152985891333</v>
+        <v>3.541569943270543</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.880777119679924</v>
+        <v>-6.076939093157506</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.71832896964286</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.79580345533394</v>
+        <v>-20.32296184590216</v>
       </c>
       <c r="F46" t="n">
-        <v>5.042078771960768</v>
+        <v>3.257833556084656</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.898936143721398</v>
+        <v>-6.063021975236751</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.797908948157655</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.99795852015915</v>
+        <v>-19.45873893531982</v>
       </c>
       <c r="F47" t="n">
-        <v>5.294734032200398</v>
+        <v>3.547199633492486</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.006149011692293</v>
+        <v>-6.120196061746569</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.871731517900026</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.29825348708594</v>
+        <v>-18.78739183020179</v>
       </c>
       <c r="F48" t="n">
-        <v>5.165827218420763</v>
+        <v>3.368751545759759</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.187974913558184</v>
+        <v>-6.363293940911738</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.938271903052899</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.78431513903399</v>
+        <v>-18.22752568378106</v>
       </c>
       <c r="F49" t="n">
-        <v>5.270460902731838</v>
+        <v>3.454453760161698</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.440054112472778</v>
+        <v>-6.669077766083093</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.981048652633463</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.18628492982962</v>
+        <v>-17.64761522170965</v>
       </c>
       <c r="F50" t="n">
-        <v>5.132965538288031</v>
+        <v>3.351862475093932</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.328900461346524</v>
+        <v>-6.483991880809611</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.003132875189964</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.73007054500684</v>
+        <v>-17.2384152963915</v>
       </c>
       <c r="F51" t="n">
-        <v>5.288973418950038</v>
+        <v>3.476082244456229</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.609691080393023</v>
+        <v>-6.732431419534205</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.994578657761922</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.44905735681203</v>
+        <v>-16.89080156364083</v>
       </c>
       <c r="F52" t="n">
-        <v>5.161271097031842</v>
+        <v>3.33455445073717</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.633597625382015</v>
+        <v>-6.72215396180345</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.960509460378397</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.52805312880512</v>
+        <v>-15.93600610199943</v>
       </c>
       <c r="F53" t="n">
-        <v>5.201621574390042</v>
+        <v>3.389175538192852</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.727351606031615</v>
+        <v>-6.794017612101684</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.903386706190417</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.86071226835666</v>
+        <v>-15.28493897398323</v>
       </c>
       <c r="F54" t="n">
-        <v>5.052474060417098</v>
+        <v>3.265558014761274</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.153977386432101</v>
+        <v>-7.21184536499253</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.823561274957664</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.47489519591384</v>
+        <v>-14.8299028964162</v>
       </c>
       <c r="F55" t="n">
-        <v>5.133332122767599</v>
+        <v>3.332014543985876</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.405297231781875</v>
+        <v>-7.457771181571513</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.732433090208005</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.36963308106636</v>
+        <v>-14.72217942863448</v>
       </c>
       <c r="F56" t="n">
-        <v>4.972715751505303</v>
+        <v>3.18603536730063</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.604025296616435</v>
+        <v>-7.567144279511292</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.626074295719961</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.02352496314249</v>
+        <v>-14.33449015688529</v>
       </c>
       <c r="F57" t="n">
-        <v>5.014506382176092</v>
+        <v>3.300435909531632</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.484571125488525</v>
+        <v>-7.406423169826263</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.514852315717315</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.81821146997854</v>
+        <v>-14.21762826172004</v>
       </c>
       <c r="F58" t="n">
-        <v>4.905159468841997</v>
+        <v>3.190329642632716</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.713346025344847</v>
+        <v>-7.699887138023553</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.392309326780936</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.1800271679586</v>
+        <v>-13.6014390284742</v>
       </c>
       <c r="F59" t="n">
-        <v>4.930951305440197</v>
+        <v>3.223243691976815</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.078935489897205</v>
+        <v>-8.120006043911701</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.267792460983532</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.89017667534563</v>
+        <v>-13.17883258504613</v>
       </c>
       <c r="F60" t="n">
-        <v>5.044461571077962</v>
+        <v>3.375978496928392</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.122087720063535</v>
+        <v>-8.108746663467816</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.141936937084678</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.74404039102628</v>
+        <v>-13.10267465941581</v>
       </c>
       <c r="F61" t="n">
-        <v>5.006336785202856</v>
+        <v>3.359456010742134</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.284759582871981</v>
+        <v>-8.296817593789211</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.018831850896678</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.40645536225238</v>
+        <v>-12.79109094408557</v>
       </c>
       <c r="F62" t="n">
-        <v>4.95069449812552</v>
+        <v>3.339529525817027</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.430647113437335</v>
+        <v>-8.405470615072696</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.906696867571678</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.93356138360923</v>
+        <v>-12.29868943420825</v>
       </c>
       <c r="F63" t="n">
-        <v>4.821866238162936</v>
+        <v>3.168963004395019</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.516336235536432</v>
+        <v>-8.460942702213089</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.80218551337492</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.86067653368934</v>
+        <v>-12.14838979758524</v>
       </c>
       <c r="F64" t="n">
-        <v>4.764548136321858</v>
+        <v>3.151969195306459</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.361716138975646</v>
+        <v>-8.313942325906188</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.715282649946858</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.68666673661996</v>
+        <v>-12.00784392657931</v>
       </c>
       <c r="F65" t="n">
-        <v>4.669864602170496</v>
+        <v>3.029032471622651</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.478761326380678</v>
+        <v>-8.495689673955029</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.638841363760521</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.71180395807608</v>
+        <v>-12.08982792697419</v>
       </c>
       <c r="F66" t="n">
-        <v>4.704244989432868</v>
+        <v>3.078521376364376</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.610613908299701</v>
+        <v>-8.615562798773874</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.580280789658199</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.62785611225493</v>
+        <v>-11.95882634473988</v>
       </c>
       <c r="F67" t="n">
-        <v>4.613515330739706</v>
+        <v>2.897873781754239</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.583486656811646</v>
+        <v>-8.526090001153518</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.533512088908376</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.32310657900807</v>
+        <v>-11.72570480034011</v>
       </c>
       <c r="F68" t="n">
-        <v>4.359577024821588</v>
+        <v>2.660039008331443</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.592886930252003</v>
+        <v>-8.503610517174273</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.500087115095349</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.31817078083674</v>
+        <v>-11.68120406298108</v>
       </c>
       <c r="F69" t="n">
-        <v>4.301918523106626</v>
+        <v>2.549539972347275</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.490177814458663</v>
+        <v>-8.410236213307083</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.478928577556696</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.40638671738429</v>
+        <v>-11.81439205978996</v>
       </c>
       <c r="F70" t="n">
-        <v>4.224071690409724</v>
+        <v>2.477715598957567</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.570996599900639</v>
+        <v>-8.493149767203734</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.461403163447963</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.49676288390073</v>
+        <v>-11.96127460537129</v>
       </c>
       <c r="F71" t="n">
-        <v>4.190921979614473</v>
+        <v>2.438648167277856</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.492743905815642</v>
+        <v>-8.376667548820897</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.452398071677028</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.46861443279101</v>
+        <v>-11.91467909955758</v>
       </c>
       <c r="F72" t="n">
-        <v>3.992233191688438</v>
+        <v>2.259702572037144</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.527255216106431</v>
+        <v>-8.38509899185097</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.445216679528765</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.63132557250799</v>
+        <v>-12.10525065972175</v>
       </c>
       <c r="F73" t="n">
-        <v>3.863562039359954</v>
+        <v>2.079631038752043</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.177036115090258</v>
+        <v>-8.027796954997424</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.449860935226873</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.93747598215891</v>
+        <v>-12.43016233934486</v>
       </c>
       <c r="F74" t="n">
-        <v>3.899199287695132</v>
+        <v>2.083611098815928</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.898536649041062</v>
+        <v>-7.754691517719018</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.45993910513624</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.18444918296523</v>
+        <v>-12.73242433505179</v>
       </c>
       <c r="F75" t="n">
-        <v>3.769925889435929</v>
+        <v>1.960255421441185</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.618531568165067</v>
+        <v>-7.425105885981406</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.480325110400276</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.35364101258885</v>
+        <v>-12.8638317786742</v>
       </c>
       <c r="F76" t="n">
-        <v>3.642563967391618</v>
+        <v>1.801498157182415</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.602964820086254</v>
+        <v>-7.400047218342342</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.509367632172959</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.69915997688485</v>
+        <v>-13.20784512814339</v>
       </c>
       <c r="F77" t="n">
-        <v>3.793230188494201</v>
+        <v>1.906707902818526</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.468153377725002</v>
+        <v>-7.265510714340765</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.542770788554202</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.92225281730786</v>
+        <v>-13.51442758378809</v>
       </c>
       <c r="F78" t="n">
-        <v>3.659557776480178</v>
+        <v>1.770338476419107</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.178067223660877</v>
+        <v>-6.912057814522687</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.58532886183986</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.26105543024605</v>
+        <v>-13.84089724744937</v>
       </c>
       <c r="F79" t="n">
-        <v>3.408552146398606</v>
+        <v>1.494378917121205</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.200114661646343</v>
+        <v>-6.975031791191388</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.629060533364969</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.75057663349818</v>
+        <v>-14.3287819128463</v>
       </c>
       <c r="F80" t="n">
-        <v>3.622297082592626</v>
+        <v>1.701551517288678</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.111519048316383</v>
+        <v>-6.857109419495962</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.683068669940936</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.22474056551698</v>
+        <v>-14.78288843691156</v>
       </c>
       <c r="F81" t="n">
-        <v>3.542591142892198</v>
+        <v>1.640619939863285</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.023420942494409</v>
+        <v>-6.791294413110605</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.741961486147314</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.88849413498681</v>
+        <v>-15.43732028675808</v>
       </c>
       <c r="F82" t="n">
-        <v>3.59077081734975</v>
+        <v>1.687516568642348</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.925202486575779</v>
+        <v>-6.689776696875861</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.815568412007829</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.61323165109339</v>
+        <v>-16.11937689560065</v>
       </c>
       <c r="F83" t="n">
-        <v>3.633111324739892</v>
+        <v>1.69390561242911</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.898232342721824</v>
+        <v>-6.69394004917953</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.905373086576569</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.42787401081412</v>
+        <v>-16.94139022182126</v>
       </c>
       <c r="F84" t="n">
-        <v>3.653692424807085</v>
+        <v>1.695712350221268</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.551731455712702</v>
+        <v>-6.409863262119758</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.016341634608882</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.75820908716758</v>
+        <v>-18.28500089325624</v>
       </c>
       <c r="F85" t="n">
-        <v>3.595876815458023</v>
+        <v>1.665521499868248</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.224162038612715</v>
+        <v>-6.039102337944917</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.160411800648285</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.75674593260319</v>
+        <v>-19.36024554104151</v>
       </c>
       <c r="F86" t="n">
-        <v>3.54222455841263</v>
+        <v>1.650884305291198</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.847352470524998</v>
+        <v>-5.661088277995761</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.336094554568895</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.81135711110991</v>
+        <v>-20.36276244654101</v>
       </c>
       <c r="F87" t="n">
-        <v>3.450316592463713</v>
+        <v>1.485711812639982</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.749369676057519</v>
+        <v>-5.56763542031152</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.561060145005463</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.18417671018478</v>
+        <v>-21.81928113768303</v>
       </c>
       <c r="F88" t="n">
-        <v>3.399413719015082</v>
+        <v>1.441014690738329</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.425898149746994</v>
+        <v>-5.234279205355491</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.831784666915086</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.72709150777935</v>
+        <v>-23.3424265579866</v>
       </c>
       <c r="F89" t="n">
-        <v>3.525675887620688</v>
+        <v>1.55146135751113</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.555996363085225</v>
+        <v>-5.381672350747642</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.162171769158142</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.12074096067541</v>
+        <v>-24.72692449119629</v>
       </c>
       <c r="F90" t="n">
-        <v>3.503000019098818</v>
+        <v>1.541563576562786</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.482653282565876</v>
+        <v>-5.290916507448798</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.54825008083329</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.57444480670646</v>
+        <v>-26.19607725458058</v>
       </c>
       <c r="F91" t="n">
-        <v>3.410411253402132</v>
+        <v>1.486471166204802</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.325624202282214</v>
+        <v>-5.168529660484342</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.99161328858944</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.28466614231546</v>
+        <v>-27.90258037618252</v>
       </c>
       <c r="F92" t="n">
-        <v>3.458983696944935</v>
+        <v>1.520799184255808</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.488322249696344</v>
+        <v>-5.367938525066672</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.49242164634522</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.21997034837941</v>
+        <v>-29.7985160276014</v>
       </c>
       <c r="F93" t="n">
-        <v>3.489017439663855</v>
+        <v>1.565705783002928</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.800377287928884</v>
+        <v>-5.752092875048598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.03457871646376</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.3447725457745</v>
+        <v>-31.97436511377638</v>
       </c>
       <c r="F94" t="n">
-        <v>3.436438751451483</v>
+        <v>1.517395185516959</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.610303235272705</v>
+        <v>-5.566103620879038</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.62137196477451</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.29166343985337</v>
+        <v>-33.79203497880742</v>
       </c>
       <c r="F95" t="n">
-        <v>3.245736268258901</v>
+        <v>1.355940906872793</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.854618698602155</v>
+        <v>-5.848216562512551</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.23397438584651</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.76651453832769</v>
+        <v>-36.23343524352113</v>
       </c>
       <c r="F96" t="n">
-        <v>3.211015481122643</v>
+        <v>1.461936190679407</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.088944734863368</v>
+        <v>-6.199483047756062</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.86673786725226</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.07460897550695</v>
+        <v>-38.49575898996571</v>
       </c>
       <c r="F97" t="n">
-        <v>3.189334627616745</v>
+        <v>1.508099650499334</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.451025462254145</v>
+        <v>-6.627313320017986</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-13.5104274590516</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.34066402826142</v>
+        <v>-40.7404212198768</v>
       </c>
       <c r="F98" t="n">
-        <v>2.710706220328924</v>
+        <v>1.095325526505394</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.515662161383746</v>
+        <v>-6.691491788548127</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-14.14350701269989</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.64905958840603</v>
+        <v>-42.9714019933183</v>
       </c>
       <c r="F99" t="n">
-        <v>2.649250950789861</v>
+        <v>1.01868318566993</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.81188860548064</v>
+        <v>-7.070998371021241</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-14.78385454581197</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.93576120274191</v>
+        <v>-45.26499015894892</v>
       </c>
       <c r="F100" t="n">
-        <v>2.396386213704764</v>
+        <v>0.8055274031037877</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.852422375078624</v>
+        <v>-7.156203077915194</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-15.37035694959608</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.04939566581301</v>
+        <v>-47.27778770553304</v>
       </c>
       <c r="F101" t="n">
-        <v>2.092854264622187</v>
+        <v>0.5660037226144093</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.769246975125139</v>
+        <v>-7.200441969217387</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-15.97936473327306</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.6605376368697</v>
+        <v>-49.88573515469635</v>
       </c>
       <c r="F102" t="n">
-        <v>1.901994673795504</v>
+        <v>0.5813740861505957</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.958037982102828</v>
+        <v>-7.50796707066669</v>
       </c>
     </row>
   </sheetData>
